--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,36 +40,36 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -82,130 +82,160 @@
     <t>drop</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -563,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7894736842105263</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7636986301369864</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,16 +783,16 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,16 +833,16 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6052631578947368</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,16 +883,16 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,16 +933,16 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.8276762402088773</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5652173913043478</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5277777777777778</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,16 +1033,16 @@
         <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,7 +1062,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4705882352941176</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -1050,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4324324324324325</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C12">
         <v>16</v>
@@ -1100,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.7830188679245284</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4074074074074074</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C13">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3725490196078431</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7875</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,13 +1262,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3565891472868217</v>
+        <v>0.3449612403100775</v>
       </c>
       <c r="C15">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D15">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1250,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1274,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3559322033898305</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2909090909090909</v>
+        <v>0.2</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.7291666666666666</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2416107382550336</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,13 +1462,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1866666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1450,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,7 +1512,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.05158730158730158</v>
+        <v>0.03485254691689008</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -1500,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>0.7301587301587301</v>
+      </c>
+      <c r="L20">
         <v>46</v>
       </c>
-      <c r="K20">
-        <v>0.6984126984126984</v>
-      </c>
-      <c r="L20">
-        <v>44</v>
-      </c>
       <c r="M20">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1524,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,37 +1562,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007105943152454781</v>
+        <v>0.00547680412371134</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="F21">
-        <v>0.6699999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>3074</v>
+        <v>3087</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1578,41 +1608,17 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.004071406201064829</v>
-      </c>
-      <c r="C22">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>0.38</v>
-      </c>
-      <c r="F22">
-        <v>0.62</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>3180</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>0.66</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1624,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>0.6511627906976745</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1650,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.6058823529411764</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1676,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.5941422594142259</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L25">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>142</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1702,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.575</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1728,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.574468085106383</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L27">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1754,21 +1760,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.5694915254237288</v>
+        <v>0.675</v>
       </c>
       <c r="L28">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1780,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>127</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.5692307692307692</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1806,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1832,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.5357142857142857</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1858,15 +1864,15 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.4857142857142857</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L32">
         <v>17</v>
@@ -1884,21 +1890,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.4814814814814815</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1910,21 +1916,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1936,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.4157303370786517</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L35">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1962,21 +1968,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.2549019607843137</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1988,33 +1994,319 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37">
+        <v>0.5491525423728814</v>
+      </c>
+      <c r="L37">
+        <v>162</v>
+      </c>
+      <c r="M37">
+        <v>162</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K37">
-        <v>0.2328767123287671</v>
-      </c>
-      <c r="L37">
+      <c r="K38">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>37</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="L39">
+        <v>16</v>
+      </c>
+      <c r="M39">
+        <v>16</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>17</v>
       </c>
-      <c r="M37">
-        <v>17</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>56</v>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="L40">
+        <v>18</v>
+      </c>
+      <c r="M40">
+        <v>18</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41">
+        <v>0.4269662921348314</v>
+      </c>
+      <c r="L41">
+        <v>38</v>
+      </c>
+      <c r="M41">
+        <v>38</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42">
+        <v>0.392156862745098</v>
+      </c>
+      <c r="L42">
+        <v>20</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L43">
+        <v>27</v>
+      </c>
+      <c r="M43">
+        <v>27</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L44">
+        <v>23</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="L45">
+        <v>13</v>
+      </c>
+      <c r="M45">
+        <v>13</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46">
+        <v>0.203125</v>
+      </c>
+      <c r="L46">
+        <v>13</v>
+      </c>
+      <c r="M46">
+        <v>13</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47">
+        <v>0.1203703703703704</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>0.93</v>
+      </c>
+      <c r="O47">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48">
+        <v>0.00438871473354232</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>25</v>
+      </c>
+      <c r="N48">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O48">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>3176</v>
       </c>
     </row>
   </sheetData>
